--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/34.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/34.xlsx
@@ -479,13 +479,13 @@
         <v>-22.33371069635792</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.16529832726166</v>
+        <v>-14.1599435753994</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5145956770331352</v>
+        <v>-0.5190863369078472</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.46399957548297</v>
+        <v>-10.45685117813139</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-21.65007933020854</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.37182940458989</v>
+        <v>-14.36699834484129</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.506242787820114</v>
+        <v>-0.5113356936255454</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.21785118975568</v>
+        <v>-10.21118720760924</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.84481180323053</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.68795614900621</v>
+        <v>-14.68266685865815</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4281079244606928</v>
+        <v>-0.4327949688780307</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.794433023551415</v>
+        <v>-9.787179887777098</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.998831776152</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.14606891774105</v>
+        <v>-15.14026902758216</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3688390694961989</v>
+        <v>-0.3742069136613065</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.577048427167394</v>
+        <v>-9.569481076124877</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-19.11952261265436</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.59060496842901</v>
+        <v>-15.58439921688203</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3521332910701564</v>
+        <v>-0.3572523814812713</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.386882728391324</v>
+        <v>-9.379001162080604</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-18.21766410880696</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.06479508505349</v>
+        <v>-16.05760741079338</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3715491761844362</v>
+        <v>-0.3782131583308748</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.245786980666042</v>
+        <v>-9.23797087586953</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.31285288936326</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.56848215998037</v>
+        <v>-16.56046967064124</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.153235026298654</v>
+        <v>-0.1592051163944811</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.043510901761374</v>
+        <v>-9.035720981570547</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.42137404567562</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.18985594515154</v>
+        <v>-17.18076988697938</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04660588427745272</v>
+        <v>0.03983716370828035</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.06691993924238</v>
+        <v>-9.058999096023136</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.53463290818927</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.61131026592954</v>
+        <v>-17.60162196182666</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1719123147756129</v>
+        <v>0.165981501588311</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.753097440126206</v>
+        <v>-8.745503904478005</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-14.67217849295049</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.1402785776438</v>
+        <v>-18.1298309199761</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2977817142959673</v>
+        <v>0.2918639934115071</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.675970684085598</v>
+        <v>-8.668076025472036</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-13.83634739677289</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.66158789219564</v>
+        <v>-18.65087838847111</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3791241918516114</v>
+        <v>0.3724209327966477</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.174090346950871</v>
+        <v>-8.166090949914576</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-13.01566098278256</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.42244707184256</v>
+        <v>-19.41121387600435</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5149830184402028</v>
+        <v>0.5077953441800952</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.582815766012838</v>
+        <v>-7.573808261657731</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.2263616185402</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.24751090462529</v>
+        <v>-20.23621224727288</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7542972220841136</v>
+        <v>0.7462847327449773</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.004620395613689</v>
+        <v>-6.994395307094302</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.46843348965065</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.04290757916867</v>
+        <v>-21.03132089115375</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8347232384408368</v>
+        <v>0.8263965338334991</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.45706101386418</v>
+        <v>-6.445762356511771</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.73110667229927</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.93153454224799</v>
+        <v>-21.92026206950126</v>
       </c>
       <c r="F16" t="n">
-        <v>1.079994439877733</v>
+        <v>1.07132733539651</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.959422582850173</v>
+        <v>-5.94893564827395</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.02765754133814</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.57128992060893</v>
+        <v>-22.56029238622189</v>
       </c>
       <c r="F17" t="n">
-        <v>1.257120205023445</v>
+        <v>1.248322177513805</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.837454689576653</v>
+        <v>-5.826614262823703</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.357005462394532</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.35187920063833</v>
+        <v>-23.34056745098307</v>
       </c>
       <c r="F18" t="n">
-        <v>1.578955193478755</v>
+        <v>1.569188335558828</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.439435590885338</v>
+        <v>-5.428621348738073</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.711398837017624</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.15045730477225</v>
+        <v>-24.13860877070049</v>
       </c>
       <c r="F19" t="n">
-        <v>1.829960823560327</v>
+        <v>1.820063042611982</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.186806515251392</v>
+        <v>-5.176502872914954</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.101613222282275</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.9020733186129</v>
+        <v>-24.89022478454114</v>
       </c>
       <c r="F20" t="n">
-        <v>2.054101048210678</v>
+        <v>2.044229451868016</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.949115757159856</v>
+        <v>-4.937555253750611</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.524615934331404</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.48130298093655</v>
+        <v>-25.46940207765342</v>
       </c>
       <c r="F21" t="n">
-        <v>2.409661808786274</v>
+        <v>2.400182981528864</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.695269097361629</v>
+        <v>-4.684467947517205</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.973962882677591</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.05780944426911</v>
+        <v>-26.04581689486609</v>
       </c>
       <c r="F22" t="n">
-        <v>2.699630132124823</v>
+        <v>2.690989212249284</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.406570727398727</v>
+        <v>-4.394355608847397</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.461219606333905</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.55886496632481</v>
+        <v>-26.5474092013383</v>
       </c>
       <c r="F23" t="n">
-        <v>2.896224151596182</v>
+        <v>2.88771415474906</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.254176322321036</v>
+        <v>-4.242419434369165</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.991010972397247</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.77433808649394</v>
+        <v>-26.76275139847901</v>
       </c>
       <c r="F24" t="n">
-        <v>3.022721981652939</v>
+        <v>3.014133430988767</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.074851050297913</v>
+        <v>-4.062923962409101</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.566998468871998</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.07891741980385</v>
+        <v>-27.06769731626849</v>
       </c>
       <c r="F25" t="n">
-        <v>3.329553191051631</v>
+        <v>3.320886086570408</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.820886559774111</v>
+        <v>-3.809352240970551</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.205249342940315</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.04686746244731</v>
+        <v>-27.03571282042616</v>
       </c>
       <c r="F26" t="n">
-        <v>3.40857833100429</v>
+        <v>3.399073319141197</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.780719374655696</v>
+        <v>-3.768753009858358</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.914722138200566</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.97665344230713</v>
+        <v>-26.96587847706839</v>
       </c>
       <c r="F27" t="n">
-        <v>3.420073372899325</v>
+        <v>3.411170606966952</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.724147534076597</v>
+        <v>-3.713464214957749</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.698313714513456</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.89017878203753</v>
+        <v>-26.8790634169249</v>
       </c>
       <c r="F28" t="n">
-        <v>3.484016179978315</v>
+        <v>3.475951321427812</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.723100149849259</v>
+        <v>-3.71324164580944</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.562436252853921</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.74608489696149</v>
+        <v>-26.73566342389948</v>
       </c>
       <c r="F29" t="n">
-        <v>3.494987529759682</v>
+        <v>3.487158332660329</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.649298838730449</v>
+        <v>-3.63989856529009</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.505448866075962</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.63065006280599</v>
+        <v>-26.62052971270934</v>
       </c>
       <c r="F30" t="n">
-        <v>3.46812212432846</v>
+        <v>3.460999911582561</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.608843622949516</v>
+        <v>-3.599508811023365</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.519533088993148</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.22672633553306</v>
+        <v>-26.2170118468245</v>
       </c>
       <c r="F31" t="n">
-        <v>3.362702901846882</v>
+        <v>3.355973458186234</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.797556076110155</v>
+        <v>-3.789190094594292</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.59966430331037</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.89491501231236</v>
+        <v>-25.88563256959757</v>
       </c>
       <c r="F32" t="n">
-        <v>3.314942181080265</v>
+        <v>3.308579321899186</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.887513288935655</v>
+        <v>-3.879238953539685</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.737230521001338</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.47593513677144</v>
+        <v>-25.46667887866234</v>
       </c>
       <c r="F33" t="n">
-        <v>3.194597733359119</v>
+        <v>3.188365797206457</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.038192602341081</v>
+        <v>-4.032065404611153</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.918244209644681</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.02000878261117</v>
+        <v>-25.01105364746743</v>
       </c>
       <c r="F34" t="n">
-        <v>3.114106255488187</v>
+        <v>3.108371826843511</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.957701124470149</v>
+        <v>-3.95255584945335</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.131234233736273</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.66485388342367</v>
+        <v>-24.65640934809075</v>
       </c>
       <c r="F35" t="n">
-        <v>2.860194134175752</v>
+        <v>2.854302597896975</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.056299257171188</v>
+        <v>-4.05207044335331</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.365776720189684</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.97029412536726</v>
+        <v>-23.96179722082298</v>
       </c>
       <c r="F36" t="n">
-        <v>2.739692578820505</v>
+        <v>2.734769872952016</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.372452186193189</v>
+        <v>-4.368694695277614</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.608783784722857</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.54010723859382</v>
+        <v>-23.53208165695184</v>
       </c>
       <c r="F37" t="n">
-        <v>2.584705897780152</v>
+        <v>2.579521345854828</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.44990624980484</v>
+        <v>-4.446973573968293</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.852037014093606</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.16619106943412</v>
+        <v>-23.15858444148308</v>
       </c>
       <c r="F38" t="n">
-        <v>2.527152134487924</v>
+        <v>2.522124690196701</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.556556148753541</v>
+        <v>-4.553256888437426</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.092961089187952</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.68964433829814</v>
+        <v>-22.68226027949541</v>
       </c>
       <c r="F39" t="n">
-        <v>2.487168241609293</v>
+        <v>2.482036058895336</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.48987705038063</v>
+        <v>-4.487193128298076</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.327578051274728</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.33047010213823</v>
+        <v>-22.32333479708948</v>
       </c>
       <c r="F40" t="n">
-        <v>2.470200617126415</v>
+        <v>2.464021050185121</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.543791153482858</v>
+        <v>-4.541774938845232</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.557304930321365</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.81503923156231</v>
+        <v>-21.80804794184483</v>
       </c>
       <c r="F41" t="n">
-        <v>2.554593601244182</v>
+        <v>2.549068649444973</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.475056563563796</v>
+        <v>-4.473079625834695</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.789599063971489</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.19742293730673</v>
+        <v>-21.19100770891428</v>
       </c>
       <c r="F42" t="n">
-        <v>2.680122600890651</v>
+        <v>2.674911864359645</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.486224297887788</v>
+        <v>-4.484077160221745</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.027686525428663</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.54580593257118</v>
+        <v>-20.53949544260147</v>
       </c>
       <c r="F43" t="n">
-        <v>2.790883482931654</v>
+        <v>2.785594192583597</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.480136377066386</v>
+        <v>-4.477504824195199</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.277265636098997</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.29233894955536</v>
+        <v>-20.28638195176238</v>
       </c>
       <c r="F44" t="n">
-        <v>2.741237470555828</v>
+        <v>2.736367133898706</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.563848561436382</v>
+        <v>-4.561531223833397</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.547057594303618</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.85417885035131</v>
+        <v>-19.84870626776347</v>
       </c>
       <c r="F45" t="n">
-        <v>2.818246395870861</v>
+        <v>2.812878551705754</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.547456998278541</v>
+        <v>-4.545493152852282</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.837523892645187</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.50160313482363</v>
+        <v>-19.4958817984818</v>
       </c>
       <c r="F46" t="n">
-        <v>2.859644257456399</v>
+        <v>2.854407336319709</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.651082575270803</v>
+        <v>-4.650388683220192</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.150579163168812</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.02023843624189</v>
+        <v>-19.01513243813362</v>
       </c>
       <c r="F47" t="n">
-        <v>2.892165537715247</v>
+        <v>2.887164278029708</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.962862675143668</v>
+        <v>-4.962574644481149</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.490149383997455</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.56428589747594</v>
+        <v>-18.55937628391029</v>
       </c>
       <c r="F48" t="n">
-        <v>2.858151734932442</v>
+        <v>2.853517059726471</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.089295043686216</v>
+        <v>-5.089111751446432</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.851276623131909</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.09382708716135</v>
+        <v>-18.08807956621384</v>
       </c>
       <c r="F49" t="n">
-        <v>2.88703335500129</v>
+        <v>2.882503418218053</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.341819380897428</v>
+        <v>-5.341295688783759</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.231400545109157</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.60658394460367</v>
+        <v>-17.60111136201584</v>
       </c>
       <c r="F50" t="n">
-        <v>2.938721766620425</v>
+        <v>2.93330155324395</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.433308393155411</v>
+        <v>-5.434512885016849</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.628859633469377</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.9163970156964</v>
+        <v>-16.91067567935457</v>
       </c>
       <c r="F51" t="n">
-        <v>2.916255374944023</v>
+        <v>2.910442392482296</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.650221666637128</v>
+        <v>-5.651478527709934</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.03257934082782</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.54060864723034</v>
+        <v>-16.53504441852261</v>
       </c>
       <c r="F52" t="n">
-        <v>2.797351080535467</v>
+        <v>2.792061790187409</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.793857321113705</v>
+        <v>-5.793647844268237</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.4356982520822</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.11692863496924</v>
+        <v>-16.11103709869046</v>
       </c>
       <c r="F53" t="n">
-        <v>2.866085670454528</v>
+        <v>2.861110595374673</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852772683901472</v>
+        <v>-5.852838145415681</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.83288210036227</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.84116546021396</v>
+        <v>-15.83448838576468</v>
       </c>
       <c r="F54" t="n">
-        <v>2.623328191163244</v>
+        <v>2.618588777534539</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.08736056621952</v>
+        <v>-6.088002089058764</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.21158916215789</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.50355424683438</v>
+        <v>-15.49640584948279</v>
       </c>
       <c r="F55" t="n">
-        <v>2.461742989490661</v>
+        <v>2.456872652833539</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.301629194527209</v>
+        <v>-6.302977701719906</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.566533348455</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.09664547451353</v>
+        <v>-15.08873772359713</v>
       </c>
       <c r="F56" t="n">
-        <v>2.406807686766778</v>
+        <v>2.401937350109656</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.49809229097015</v>
+        <v>-6.498314860118459</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.8948084749215</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.55652252077812</v>
+        <v>-14.54868023137593</v>
       </c>
       <c r="F57" t="n">
-        <v>2.362503333950377</v>
+        <v>2.356821274517068</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.765149084335678</v>
+        <v>-6.76546329960388</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.1884771761371</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.30632861347273</v>
+        <v>-14.2980019088654</v>
       </c>
       <c r="F58" t="n">
-        <v>2.184186169246068</v>
+        <v>2.178294632967291</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721865931140932</v>
+        <v>-6.721996854169349</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.44821032302854</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.9304224142811</v>
+        <v>-13.92178149440556</v>
       </c>
       <c r="F59" t="n">
-        <v>2.234329689129879</v>
+        <v>2.227704983891965</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.859007803408012</v>
+        <v>-6.859400572493264</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.67491923998415</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.81742274845416</v>
+        <v>-13.80820576725358</v>
       </c>
       <c r="F60" t="n">
-        <v>2.053708279125426</v>
+        <v>2.047057389281829</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.82136743273805</v>
+        <v>-6.821341248132367</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-12.86461674247777</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.48913325469788</v>
+        <v>-13.48008647343424</v>
       </c>
       <c r="F61" t="n">
-        <v>1.93200223190874</v>
+        <v>1.925272788248093</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.150848326052929</v>
+        <v>-7.150049695579582</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.02152929614345</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.1872640280762</v>
+        <v>-13.17726150870512</v>
       </c>
       <c r="F62" t="n">
-        <v>1.852741430504931</v>
+        <v>1.845697771576082</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.193005541203286</v>
+        <v>-7.193162648837387</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.14794334140693</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.85981244170179</v>
+        <v>-12.84973136851366</v>
       </c>
       <c r="F63" t="n">
-        <v>1.784347240459754</v>
+        <v>1.777355950742272</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.312839389113605</v>
+        <v>-7.31219786627436</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.24184378013727</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.61569336291496</v>
+        <v>-12.60504932070464</v>
       </c>
       <c r="F64" t="n">
-        <v>1.668375621887744</v>
+        <v>1.661096301507744</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.498278766563812</v>
+        <v>-7.499313058488309</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.30915874593187</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.40358496457616</v>
+        <v>-12.39271835321753</v>
       </c>
       <c r="F65" t="n">
-        <v>1.593121065153503</v>
+        <v>1.587517559537244</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730300557524882</v>
+        <v>-7.730195819102148</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-13.35128471006688</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.1673605444029</v>
+        <v>-12.15627136389596</v>
       </c>
       <c r="F66" t="n">
-        <v>1.524124629177606</v>
+        <v>1.518494938955664</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.851967327833043</v>
+        <v>-7.85263503527797</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-13.36679083182501</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.98659511906719</v>
+        <v>-11.97540120013751</v>
       </c>
       <c r="F67" t="n">
-        <v>1.57261851890336</v>
+        <v>1.564710767986957</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.81576711047567</v>
+        <v>-7.815295787573368</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-13.36208004088235</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.89583927576834</v>
+        <v>-11.88423949545057</v>
       </c>
       <c r="F68" t="n">
-        <v>1.435542108150488</v>
+        <v>1.429179248969409</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.829605674579375</v>
+        <v>-7.830260289721461</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.33744893924075</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.74695360785223</v>
+        <v>-11.73526218141457</v>
       </c>
       <c r="F69" t="n">
-        <v>1.322581719232075</v>
+        <v>1.314516860681572</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.902215586139588</v>
+        <v>-7.902870201281673</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-13.29198289425121</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.64598576833684</v>
+        <v>-11.63352189603152</v>
       </c>
       <c r="F70" t="n">
-        <v>1.370028224730491</v>
+        <v>1.36243468908229</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.844072669219481</v>
+        <v>-7.845054591932612</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-13.23241135863182</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.37868022121732</v>
+        <v>-11.36659602569441</v>
       </c>
       <c r="F71" t="n">
-        <v>1.308494401374378</v>
+        <v>1.300743758092076</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.700751230011107</v>
+        <v>-7.703212582945351</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-13.15821828841552</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.32265825735757</v>
+        <v>-11.31069189256024</v>
       </c>
       <c r="F72" t="n">
-        <v>1.360575582078764</v>
+        <v>1.353243892487398</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.703225675248192</v>
+        <v>-7.705071689948876</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-13.06925132574571</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.29748175899293</v>
+        <v>-11.28840879312362</v>
       </c>
       <c r="F73" t="n">
-        <v>1.33384109967596</v>
+        <v>1.32648322547891</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.587659918064277</v>
+        <v>-7.590998455288917</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.97287923147957</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.49298911732843</v>
+        <v>-11.48386378224775</v>
       </c>
       <c r="F74" t="n">
-        <v>1.381025759117541</v>
+        <v>1.373903546371642</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.473220098924749</v>
+        <v>-7.475917113310144</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.86834617733119</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.62156862353702</v>
+        <v>-11.61239091924497</v>
       </c>
       <c r="F75" t="n">
-        <v>1.312893415129198</v>
+        <v>1.305758110080457</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.34268983959274</v>
+        <v>-7.344810792653099</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-12.75619622431943</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.95945477527629</v>
+        <v>-11.95107570145758</v>
       </c>
       <c r="F76" t="n">
-        <v>1.33892091317855</v>
+        <v>1.332270023334953</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.147719265673755</v>
+        <v>-7.151358925863756</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.6439855179555</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.57218764057191</v>
+        <v>-12.56417515123277</v>
       </c>
       <c r="F77" t="n">
-        <v>1.312762492100781</v>
+        <v>1.305902125411716</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.976000621601677</v>
+        <v>-6.978488159141604</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.52998597469642</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.10202004427372</v>
+        <v>-13.09437413941415</v>
       </c>
       <c r="F78" t="n">
-        <v>1.340649097153657</v>
+        <v>1.333553069013442</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.83843979564366</v>
+        <v>-6.839395533751107</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.41417860119995</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.59756370683305</v>
+        <v>-13.58999635579054</v>
       </c>
       <c r="F79" t="n">
-        <v>1.400376182717612</v>
+        <v>1.393437262211497</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.662872014536114</v>
+        <v>-6.663042214473056</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.30286868065426</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.15579331539857</v>
+        <v>-14.14831761047594</v>
       </c>
       <c r="F80" t="n">
-        <v>1.387729018172504</v>
+        <v>1.381758928076677</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.39645674400983</v>
+        <v>-6.397477943631485</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.192237225337</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.94017936325206</v>
+        <v>-14.93283458135785</v>
       </c>
       <c r="F81" t="n">
-        <v>1.450022195093437</v>
+        <v>1.443685520518041</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.280655325374763</v>
+        <v>-6.281100463671382</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.08100663002896</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.69449239147811</v>
+        <v>-15.68739636333789</v>
       </c>
       <c r="F82" t="n">
-        <v>1.483590859579623</v>
+        <v>1.47788261554063</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.19567318762912</v>
+        <v>-6.196275433559839</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.97400601708406</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.56316668502663</v>
+        <v>-16.55600519537221</v>
       </c>
       <c r="F83" t="n">
-        <v>1.439705460454157</v>
+        <v>1.43373537035833</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.935895714643591</v>
+        <v>-5.936851452751037</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.86586958037507</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.63393376524004</v>
+        <v>-17.62692938321972</v>
       </c>
       <c r="F84" t="n">
-        <v>1.524281736811707</v>
+        <v>1.519044815675017</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.747523661356836</v>
+        <v>-5.747720045899462</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.75508950364683</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.44602312590663</v>
+        <v>-18.43914966691472</v>
       </c>
       <c r="F85" t="n">
-        <v>1.515667001541851</v>
+        <v>1.510063495925593</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.539735722955801</v>
+        <v>-5.539225123144974</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.6468327812756</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.53327341539777</v>
+        <v>-19.52579771047514</v>
       </c>
       <c r="F86" t="n">
-        <v>1.511320356998398</v>
+        <v>1.505821589804873</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.242763017596929</v>
+        <v>-5.242671371477037</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-11.53624350558264</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.59261091523035</v>
+        <v>-20.58505665649067</v>
       </c>
       <c r="F87" t="n">
-        <v>1.535122163564656</v>
+        <v>1.531639611008757</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.971084641328272</v>
+        <v>-4.971883271801617</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-11.42314960360821</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.9550090412432</v>
+        <v>-21.947664259349</v>
       </c>
       <c r="F88" t="n">
-        <v>1.587098605846309</v>
+        <v>1.583170914993791</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.659906787386126</v>
+        <v>-4.659893695083285</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.31212216995078</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.42214558998987</v>
+        <v>-23.41566490008321</v>
       </c>
       <c r="F89" t="n">
-        <v>1.380214036341354</v>
+        <v>1.375553176529699</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.320449559305853</v>
+        <v>-4.32088160529963</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.1959158790777</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.91088443842538</v>
+        <v>-24.90460013306135</v>
       </c>
       <c r="F90" t="n">
-        <v>1.231708045207655</v>
+        <v>1.227714892840928</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.126866769488092</v>
+        <v>-4.126500185008523</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-11.07124403609829</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.56492670254053</v>
+        <v>-26.55874713559923</v>
       </c>
       <c r="F91" t="n">
-        <v>1.066797398613273</v>
+        <v>1.063197015331798</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.088087368470899</v>
+        <v>-4.088349214527733</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-10.93725790758679</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.26628454912567</v>
+        <v>-28.2611785510174</v>
       </c>
       <c r="F92" t="n">
-        <v>0.982208029952881</v>
+        <v>0.9790004157566581</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.842253198011808</v>
+        <v>-3.842750705519794</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-10.78071387845531</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.15968029379325</v>
+        <v>-30.15503252628444</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8592189370577064</v>
+        <v>0.8561553381927425</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.884253305528065</v>
+        <v>-3.885261412846878</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.59460124789712</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.30124063882575</v>
+        <v>-32.29723439415618</v>
       </c>
       <c r="F94" t="n">
-        <v>0.768044140067926</v>
+        <v>0.7652162026541132</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.921841306986661</v>
+        <v>-3.923294552602093</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.37581355267113</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.39335135602506</v>
+        <v>-34.38996044958905</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3569327385348857</v>
+        <v>0.3540393396068642</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.925742813233495</v>
+        <v>-3.927379351088711</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.10822380540522</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.41187023895102</v>
+        <v>-36.40895065541731</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07636468863669607</v>
+        <v>0.07289522838363867</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.102240147842805</v>
+        <v>-4.103510101218452</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.793416262177182</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.54611198669499</v>
+        <v>-38.54365063376075</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.250641759441096</v>
+        <v>-0.2535613429748008</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.188767177323772</v>
+        <v>-4.190940499595499</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.42411889695726</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.89132310243054</v>
+        <v>-40.89010551826626</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5138625080739986</v>
+        <v>-0.5173188760242142</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.395350623863368</v>
+        <v>-4.397589407649303</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.0084024948014</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31550698890738</v>
+        <v>-43.31474763534256</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4305038158807287</v>
+        <v>-0.4339209069224191</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.714881367018534</v>
+        <v>-4.717028504684577</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.533497141818803</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79970599161069</v>
+        <v>-45.79973217621637</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5749773777391758</v>
+        <v>-0.5771376077080607</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.959511045616185</v>
+        <v>-4.96227352151579</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.042793762579278</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20274580899815</v>
+        <v>-48.20282436281519</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.6014892909936711</v>
+        <v>-0.604552889858635</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.317140390040775</v>
+        <v>-5.320714588716566</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.485553773181224</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.49457960604798</v>
+        <v>-50.49543060573269</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.725473398904817</v>
+        <v>-0.7283275209243133</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.636095071870906</v>
+        <v>-5.639263409158604</v>
       </c>
     </row>
   </sheetData>
